--- a/program_web/node.xlsx
+++ b/program_web/node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA17586-07AF-4BDD-A19F-D9050AC55AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E81B86-1848-4791-8420-228C111898B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31020" yWindow="1605" windowWidth="21600" windowHeight="11505" xr2:uid="{A8BEFE8D-9F37-4AAA-94EF-C74C5F4B2DD4}"/>
   </bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F033A10-CA41-4A25-AF2F-D7619CA118C2}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -730,6 +730,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA4811A5A8FAF14F96D107A9620D11F5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="428f8538b8d2296bb3decd2b23cd9d43">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea8dc71a-7465-4053-9b10-8293f32dee50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f68b34ce5ad618fe45be4223cb8f0c7f" ns3:_="">
     <xsd:import namespace="ea8dc71a-7465-4053-9b10-8293f32dee50"/>
@@ -861,15 +870,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -877,6 +877,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1454D2-2843-4C2E-A914-23C8A35D1463}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E8951C-C767-49FE-BD71-4ADD46BBF41F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -894,14 +902,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1454D2-2843-4C2E-A914-23C8A35D1463}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE84CAEE-2FAC-4E24-8B20-3922128BA8F4}">
   <ds:schemaRefs>

--- a/program_web/node.xlsx
+++ b/program_web/node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E81B86-1848-4791-8420-228C111898B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F365A69-9700-4C75-9401-333138C5799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31020" yWindow="1605" windowWidth="21600" windowHeight="11505" xr2:uid="{A8BEFE8D-9F37-4AAA-94EF-C74C5F4B2DD4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Reset css</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>thực thi đoạn code lặp lại liên tục sau 1 khoảng thời gian</t>
+  </si>
+  <si>
+    <t>capitalize</t>
+  </si>
+  <si>
+    <t>viết hoa</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +513,7 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -548,8 +554,12 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
